--- a/docs/xlsx/protocolos-abm.xlsx
+++ b/docs/xlsx/protocolos-abm.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Anima-Site/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Anima-Site\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC2172-717D-574C-A9BA-C4E12532587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{C46092D1-09A8-AB45-8CFD-372EDCDC3F4D}"/>
+    <workbookView xWindow="5085" yWindow="1905" windowWidth="28245" windowHeight="17235" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ABM" sheetId="1" r:id="rId1"/>
+    <sheet name="ABM Protocols" sheetId="1" r:id="rId1"/>
+    <sheet name="ABM Position Statements" sheetId="3" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -267,12 +268,105 @@
   </si>
   <si>
     <t>https://abm.memberclicks.net/assets/DOCUMENTS/PROTOCOLS/37-cuidado-fisiologico-formatado.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bfmed.org/assets/DOCUMENTS/abm-position-breastfeeding.pdf</t>
+  </si>
+  <si>
+    <t>Breastfeeding (2015)</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Informal Breast Milk Sharing for the Term Healthy Infant (2017)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>https://abm.memberclicks.net/assets/DOCUMENTS/ABM's%202017%20Position%20Statement%20on%20Informal%20Breast%20Milk%20Sharing%20for%20the%20Term%20Healthy%20Infant.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bfmed.org/assets/bfm.2018.29113.jym.pdf</t>
+  </si>
+  <si>
+    <t>Physician Education (2018)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>https://abm.memberclicks.net/abm-statement-considerations-for-covid-19-vaccination-in-lactation</t>
+  </si>
+  <si>
+    <t>Consideration for COVID-19 Vaccination in Lactation (2020)</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>https://www.bfmed.org/assets/Anklyloglossia%20position%20statement%202021.pdf</t>
+  </si>
+  <si>
+    <t>Ankyloglossia in Breastfeeding Dyads (2021)</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Supplementation Framework for Parents</t>
+  </si>
+  <si>
+    <t>https://www.bfmed.org/assets/DOCUMENTS/PositionStatements/Parents_SupplementationInfoGraphic.pdf</t>
+  </si>
+  <si>
+    <t>Supplementation Framework for Providers</t>
+  </si>
+  <si>
+    <t>https://www.bfmed.org/assets/DOCUMENTS/PositionStatements/Providers_SupplementationInfoGraphic.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bfmed.org/assets/DOCUMENTS/PositionStatements/SupplmentationStatement.pdf</t>
+  </si>
+  <si>
+    <t>Recommendation for Exclusive Breastfeeding: Avoidance of Underfeeding and Overfeeding (2024)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Position Statements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -328,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -340,6 +434,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -656,21 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D63506-6CD6-AB4E-A37F-DD77BCD6312C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="129.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="6.83203125" style="2"/>
+    <col min="5" max="16384" width="6.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -684,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -698,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -712,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -726,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -740,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -754,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -768,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -782,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -796,7 +893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -810,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -824,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -838,7 +935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -852,7 +949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -866,7 +963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -880,7 +977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -894,7 +991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -908,7 +1005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -922,7 +1019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -936,7 +1033,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -950,7 +1047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -964,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -978,7 +1075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -992,7 +1089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1006,7 +1103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1020,7 +1117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1034,7 +1131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1048,7 +1145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1062,7 +1159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1076,7 +1173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1090,7 +1187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1104,7 +1201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1118,7 +1215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1132,7 +1229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1146,7 +1243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1160,7 +1257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1174,7 +1271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1188,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1204,44 +1301,215 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{691BBCED-9B3C-0144-8D1B-3880833A1383}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{66EFDD64-22B4-2D4D-A5AE-67F0C71B6545}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3818374A-9688-9745-968F-4979925AA61A}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{B3B82F16-9AA5-7547-A658-B3F6504AC8F2}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{12B1BC22-3892-A840-9703-B061D0572A94}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{D590D4BD-1F1D-8246-9DAD-7F7A85BA9E07}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{46D1460F-5AF0-FD4E-A495-C97D12FEEE58}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{60EB9C5E-1030-E442-B941-F62DC8AC8DBD}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{A2824DE3-7AD1-584F-9BB6-CD5758BCED58}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{45092A16-C5F1-A249-8D4D-1F374ED33EB3}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{FBE75152-CE85-3A46-A6D2-DD907656C547}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{5ECA3ECA-8CBA-D042-82C2-DD34ED767E8B}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{B3ECD250-A422-E547-8A12-615F24731DBD}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{A5633E6B-5AA0-BC43-ADE3-2B818C8A49B7}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{A5122076-9FA2-D142-A365-08C011C59FD3}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{D409F189-4B7F-7D4B-944C-6A0FE436D69F}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{65E41F03-50C9-E64F-A5E7-82C7498842AD}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{90FAA2B4-8146-1441-BA08-541CD737A927}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{AF6BB894-013C-2A4A-8B5B-705E14DD9DF4}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{57951FE3-5DD7-CD44-850E-BC12FD745981}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{CAF1E0C6-E70A-1142-8FD1-8D7D3F102C7D}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{067A2178-6119-BF4A-8353-C727C0CA2C85}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{A88602E5-75E4-BC45-8017-A8FCC58E86FE}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{6961069C-CE1B-A745-82B1-73BD8D27C3FA}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{B80D66F6-D1A9-D745-AD1E-251E05E04A6A}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{B87AF10B-A011-7A43-AB4A-AE8AB15B40EB}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{3DDB07F2-D5C9-1941-AB70-099A16788E78}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{57265BA9-C945-6B4B-B8C4-221522F5767A}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{DD87E35B-99F9-2443-80B6-2F9EF2926C6E}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{C43FD47D-2A1D-9244-ABE7-5361ACE18CAC}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{B778EFFB-DAE5-2B43-BFF5-77CDC0344CDB}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{D4A74481-21F7-5642-BB98-D355DD90715F}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{75189889-F485-824C-8D6D-92CEEA5A46F0}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{A4D293EC-DC7C-914F-BECF-2D4567E80ABC}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{EA33C80F-861E-AD4E-80D7-F2BE64A8E6CB}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{93FC5711-DAEB-5946-B57F-D05DC79DA89C}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{4F5EF07F-D6BA-2E43-A3D7-6961DDD9AA2E}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="162.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="6.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>